--- a/biology/Botanique/Pennantia_baylisiana/Pennantia_baylisiana.xlsx
+++ b/biology/Botanique/Pennantia_baylisiana/Pennantia_baylisiana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pennantia baylisiana est une espèce de plantes de la famille des Pennantiaceae (dans Icacinaceae selon les classifications plus anciennes). Elle est endémique des îles des Trois Rois, en Nouvelle-Zélande, et où se trouve le seul exemplaire existant. Il est menacé par la destruction de son habitat. Pennantia baylisiana est listé comme une des plantes les plus rares dans le Guinness Book of Records. Le seul arbre connu à l'état sauvage pousse sur un talus d'éboulis sur la face nord de la Grande Île dans l'archipel au large du cap Reinga en Nouvelle-Zélande. Il a été découvert en 1945 par le professeur Geoff Baylis de l'université d'Otago.
 </t>
